--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/threshold_approval.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/threshold_approval.xlsx
@@ -524,13 +524,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -557,10 +557,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -597,19 +597,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -622,49 +622,49 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
       </c>
       <c r="O4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -692,22 +692,22 @@
         <v>1</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
@@ -732,28 +732,28 @@
         <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -765,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -781,28 +781,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -866,13 +866,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -885,28 +885,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -934,49 +934,49 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
       </c>
       <c r="M10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1013,10 +1013,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -1056,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
@@ -1093,25 +1093,25 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -1120,19 +1120,19 @@
         <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1142,19 +1142,19 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1166,25 +1166,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1206,25 +1206,25 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
       </c>
       <c r="L15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1246,34 +1246,34 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>

--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/threshold_approval.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/threshold_approval.xlsx
@@ -521,46 +521,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -579,31 +579,31 @@
         <v>1</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
       <c r="L3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
@@ -625,22 +625,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="b">
         <v>1</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="b">
         <v>1</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
@@ -726,49 +726,49 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
       <c r="L6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -805,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
       </c>
       <c r="N7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -839,31 +839,31 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -882,34 +882,34 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="O10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1038,34 +1038,34 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>1</v>
       </c>
       <c r="N12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1090,13 +1090,13 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1163,28 +1163,28 @@
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>1</v>
       </c>
       <c r="L15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
